--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.528653251263428</v>
+        <v>0.6552053333333333</v>
       </c>
       <c r="H2">
-        <v>0.528653251263428</v>
+        <v>1.965616</v>
       </c>
       <c r="I2">
-        <v>0.1266391908461599</v>
+        <v>0.1282135351127643</v>
       </c>
       <c r="J2">
-        <v>0.1266391908461599</v>
+        <v>0.162056057121492</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.725952635673505</v>
+        <v>0.893126</v>
       </c>
       <c r="N2">
-        <v>0.725952635673505</v>
+        <v>2.679378</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.748628476447235</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.748628476447235</v>
       </c>
       <c r="Q2">
-        <v>0.3837772211120533</v>
+        <v>0.5851809185386666</v>
       </c>
       <c r="R2">
-        <v>0.3837772211120533</v>
+        <v>5.266628266848</v>
       </c>
       <c r="S2">
-        <v>0.1266391908461599</v>
+        <v>0.09598430345138283</v>
       </c>
       <c r="T2">
-        <v>0.1266391908461599</v>
+        <v>0.1213197791419087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.898303498505959</v>
+        <v>0.6552053333333333</v>
       </c>
       <c r="H3">
-        <v>0.898303498505959</v>
+        <v>1.965616</v>
       </c>
       <c r="I3">
-        <v>0.2151891204928624</v>
+        <v>0.1282135351127643</v>
       </c>
       <c r="J3">
-        <v>0.2151891204928624</v>
+        <v>0.162056057121492</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.725952635673505</v>
+        <v>0.030946</v>
       </c>
       <c r="N3">
-        <v>0.725952635673505</v>
+        <v>0.092838</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02593929281214088</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02593929281214088</v>
       </c>
       <c r="Q3">
-        <v>0.6521257923751314</v>
+        <v>0.02027598424533333</v>
       </c>
       <c r="R3">
-        <v>0.6521257923751314</v>
+        <v>0.182483858208</v>
       </c>
       <c r="S3">
-        <v>0.2151891204928624</v>
+        <v>0.0033257684297697</v>
       </c>
       <c r="T3">
-        <v>0.2151891204928624</v>
+        <v>0.00420361951765541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.6552053333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.965616</v>
+      </c>
+      <c r="I4">
+        <v>0.1282135351127643</v>
+      </c>
+      <c r="J4">
+        <v>0.162056057121492</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.2689443333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.806833</v>
+      </c>
+      <c r="O4">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="P4">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="Q4">
+        <v>0.1762137615697778</v>
+      </c>
+      <c r="R4">
+        <v>1.585923854128</v>
+      </c>
+      <c r="S4">
+        <v>0.0289034632316118</v>
+      </c>
+      <c r="T4">
+        <v>0.03653265846192795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.054585</v>
+      </c>
+      <c r="H5">
+        <v>3.163755</v>
+      </c>
+      <c r="I5">
+        <v>0.2063659497992913</v>
+      </c>
+      <c r="J5">
+        <v>0.2608371426557405</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.893126</v>
+      </c>
+      <c r="N5">
+        <v>2.679378</v>
+      </c>
+      <c r="O5">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="P5">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="Q5">
+        <v>0.94187728271</v>
+      </c>
+      <c r="R5">
+        <v>8.47689554439</v>
+      </c>
+      <c r="S5">
+        <v>0.15449142658883</v>
+      </c>
+      <c r="T5">
+        <v>0.1952701127072171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.054585</v>
+      </c>
+      <c r="H6">
+        <v>3.163755</v>
+      </c>
+      <c r="I6">
+        <v>0.2063659497992913</v>
+      </c>
+      <c r="J6">
+        <v>0.2608371426557405</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.030946</v>
+      </c>
+      <c r="N6">
+        <v>0.092838</v>
+      </c>
+      <c r="O6">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="P6">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="Q6">
+        <v>0.03263518741</v>
+      </c>
+      <c r="R6">
+        <v>0.29371668669</v>
+      </c>
+      <c r="S6">
+        <v>0.005352986798299383</v>
+      </c>
+      <c r="T6">
+        <v>0.006765931019629415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.054585</v>
+      </c>
+      <c r="H7">
+        <v>3.163755</v>
+      </c>
+      <c r="I7">
+        <v>0.2063659497992913</v>
+      </c>
+      <c r="J7">
+        <v>0.2608371426557405</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2689443333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.806833</v>
+      </c>
+      <c r="O7">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="P7">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="Q7">
+        <v>0.2836246597683333</v>
+      </c>
+      <c r="R7">
+        <v>2.552621937915</v>
+      </c>
+      <c r="S7">
+        <v>0.04652153641216189</v>
+      </c>
+      <c r="T7">
+        <v>0.05880109892889398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09810400000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.294312</v>
+      </c>
+      <c r="I8">
+        <v>0.01919743324540902</v>
+      </c>
+      <c r="J8">
+        <v>0.02426467951193954</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.893126</v>
+      </c>
+      <c r="N8">
+        <v>2.679378</v>
+      </c>
+      <c r="O8">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="P8">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="Q8">
+        <v>0.08761923310400001</v>
+      </c>
+      <c r="R8">
+        <v>0.7885730979359999</v>
+      </c>
+      <c r="S8">
+        <v>0.01437174520220805</v>
+      </c>
+      <c r="T8">
+        <v>0.01816523005450374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09810400000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.294312</v>
+      </c>
+      <c r="I9">
+        <v>0.01919743324540902</v>
+      </c>
+      <c r="J9">
+        <v>0.02426467951193954</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.030946</v>
+      </c>
+      <c r="N9">
+        <v>0.092838</v>
+      </c>
+      <c r="O9">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="P9">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="Q9">
+        <v>0.003035926384000001</v>
+      </c>
+      <c r="R9">
+        <v>0.027323337456</v>
+      </c>
+      <c r="S9">
+        <v>0.0004979678421941926</v>
+      </c>
+      <c r="T9">
+        <v>0.0006294086268529555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09810400000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.294312</v>
+      </c>
+      <c r="I10">
+        <v>0.01919743324540902</v>
+      </c>
+      <c r="J10">
+        <v>0.02426467951193954</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2689443333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.806833</v>
+      </c>
+      <c r="O10">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="P10">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="Q10">
+        <v>0.02638451487733334</v>
+      </c>
+      <c r="R10">
+        <v>0.237460633896</v>
+      </c>
+      <c r="S10">
+        <v>0.004327720201006775</v>
+      </c>
+      <c r="T10">
+        <v>0.00547004083058285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1008076666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.302423</v>
+      </c>
+      <c r="I11">
+        <v>0.01972649893438369</v>
+      </c>
+      <c r="J11">
+        <v>0.02493339439791545</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.893126</v>
+      </c>
+      <c r="N11">
+        <v>2.679378</v>
+      </c>
+      <c r="O11">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="P11">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="Q11">
+        <v>0.09003394809933334</v>
+      </c>
+      <c r="R11">
+        <v>0.810305532894</v>
+      </c>
+      <c r="S11">
+        <v>0.01476781884288567</v>
+      </c>
+      <c r="T11">
+        <v>0.01866584906076947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1008076666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.302423</v>
+      </c>
+      <c r="I12">
+        <v>0.01972649893438369</v>
+      </c>
+      <c r="J12">
+        <v>0.02493339439791545</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030946</v>
+      </c>
+      <c r="N12">
+        <v>0.092838</v>
+      </c>
+      <c r="O12">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="P12">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="Q12">
+        <v>0.003119594052666667</v>
+      </c>
+      <c r="R12">
+        <v>0.028076346474</v>
+      </c>
+      <c r="S12">
+        <v>0.0005116914320173636</v>
+      </c>
+      <c r="T12">
+        <v>0.000646754618088122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1008076666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.302423</v>
+      </c>
+      <c r="I13">
+        <v>0.01972649893438369</v>
+      </c>
+      <c r="J13">
+        <v>0.02493339439791545</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2689443333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.806833</v>
+      </c>
+      <c r="O13">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="P13">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="Q13">
+        <v>0.02711165070655556</v>
+      </c>
+      <c r="R13">
+        <v>0.244004856359</v>
+      </c>
+      <c r="S13">
+        <v>0.00444698865948066</v>
+      </c>
+      <c r="T13">
+        <v>0.005620790719057862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.74752705521347</v>
-      </c>
-      <c r="H4">
-        <v>2.74752705521347</v>
-      </c>
-      <c r="I4">
-        <v>0.6581716886609775</v>
-      </c>
-      <c r="J4">
-        <v>0.6581716886609775</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.725952635673505</v>
-      </c>
-      <c r="N4">
-        <v>0.725952635673505</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.994574507316482</v>
-      </c>
-      <c r="R4">
-        <v>1.994574507316482</v>
-      </c>
-      <c r="S4">
-        <v>0.6581716886609775</v>
-      </c>
-      <c r="T4">
-        <v>0.6581716886609775</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.2015645</v>
+      </c>
+      <c r="H14">
+        <v>6.403129</v>
+      </c>
+      <c r="I14">
+        <v>0.6264965829081517</v>
+      </c>
+      <c r="J14">
+        <v>0.5279087263129125</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.893126</v>
+      </c>
+      <c r="N14">
+        <v>2.679378</v>
+      </c>
+      <c r="O14">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="P14">
+        <v>0.748628476447235</v>
+      </c>
+      <c r="Q14">
+        <v>2.859400495627</v>
+      </c>
+      <c r="R14">
+        <v>17.156402973762</v>
+      </c>
+      <c r="S14">
+        <v>0.4690131823619284</v>
+      </c>
+      <c r="T14">
+        <v>0.3952075054828361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.2015645</v>
+      </c>
+      <c r="H15">
+        <v>6.403129</v>
+      </c>
+      <c r="I15">
+        <v>0.6264965829081517</v>
+      </c>
+      <c r="J15">
+        <v>0.5279087263129125</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.030946</v>
+      </c>
+      <c r="N15">
+        <v>0.092838</v>
+      </c>
+      <c r="O15">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="P15">
+        <v>0.02593929281214088</v>
+      </c>
+      <c r="Q15">
+        <v>0.099075615017</v>
+      </c>
+      <c r="R15">
+        <v>0.594453690102</v>
+      </c>
+      <c r="S15">
+        <v>0.01625087830986024</v>
+      </c>
+      <c r="T15">
+        <v>0.01369357902991498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.2015645</v>
+      </c>
+      <c r="H16">
+        <v>6.403129</v>
+      </c>
+      <c r="I16">
+        <v>0.6264965829081517</v>
+      </c>
+      <c r="J16">
+        <v>0.5279087263129125</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2689443333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.806833</v>
+      </c>
+      <c r="O16">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="P16">
+        <v>0.2254322307406241</v>
+      </c>
+      <c r="Q16">
+        <v>0.8610426300761667</v>
+      </c>
+      <c r="R16">
+        <v>5.166255780457</v>
+      </c>
+      <c r="S16">
+        <v>0.141232522236363</v>
+      </c>
+      <c r="T16">
+        <v>0.1190076418001615</v>
       </c>
     </row>
   </sheetData>
